--- a/data/martin-pipette-testing-1-27-16.xlsx
+++ b/data/martin-pipette-testing-1-27-16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/martin-pipette-testing-1-27-16.xlsx
+++ b/data/martin-pipette-testing-1-27-16.xlsx
@@ -27,30 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Mass 10uL</t>
   </si>
   <si>
     <t>Mass 20uL</t>
   </si>
   <si>
     <t>Trial 1</t>
-  </si>
-  <si>
-    <t>Mass(g) 200uL</t>
-  </si>
-  <si>
-    <t>Mass(g) 50uL</t>
-  </si>
-  <si>
-    <t>Mass(g) 20uL</t>
-  </si>
-  <si>
-    <t>Mass(g) 10uL</t>
   </si>
   <si>
     <t>Trial 2</t>
@@ -78,6 +63,21 @@
   </si>
   <si>
     <t>non-drifting</t>
+  </si>
+  <si>
+    <t>Mass(mg) 200uL</t>
+  </si>
+  <si>
+    <t>Mass(mg) 50uL</t>
+  </si>
+  <si>
+    <t>Mass(mg) 20uL</t>
+  </si>
+  <si>
+    <t>Mass (mg) 10uL</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -401,12 +401,12 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -417,19 +417,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -440,10 +440,10 @@
         <v>9.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,24 +612,24 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -744,14 +744,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>198.6</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE(E2:E6)</f>
+        <v>197.52</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(H2:H6)</f>
+        <v>196.32</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -765,24 +780,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,14 +912,29 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B10:B14)</f>
+        <v>49.06</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <f>AVERAGE(E10:E14)</f>
+        <v>49.160000000000004</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(H10:H14)</f>
+        <v>47.879999999999995</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -918,24 +948,24 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,6 +1076,29 @@
       </c>
       <c r="H22" s="1">
         <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(B18:B22)</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <f>AVERAGE(E18:E22)</f>
+        <v>20.160000000000004</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <f>AVERAGE(H18:H22)</f>
+        <v>20.2</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,24 +1124,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,6 +1252,29 @@
       </c>
       <c r="H6" s="1">
         <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>10.139999999999999</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE(E2:E6)</f>
+        <v>9.48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(H2:H6)</f>
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
@@ -1208,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,24 +1299,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1354,14 +1430,29 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>188.88</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <f>AVERAGE(E2:E6)</f>
+        <v>189.6</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <f>AVERAGE(H2:H6)</f>
+        <v>187.88000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1375,24 +1466,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,14 +1597,29 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B10:B14)</f>
+        <v>44.2</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <f>AVERAGE(E10:E14)</f>
+        <v>49.04</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(H10:H14)</f>
+        <v>44.320000000000007</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1527,24 +1633,24 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1658,14 +1764,29 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(B18:B22)</f>
+        <v>17.579999999999998</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1">
+        <f>AVERAGE(E18:E22)</f>
+        <v>17.939999999999998</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1">
+        <f>AVERAGE(H18:H22)</f>
+        <v>16.54</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1679,24 +1800,24 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,31 +1930,54 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
+        <f>AVERAGE(B26:B30)</f>
+        <v>7.7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1">
+        <f>AVERAGE(E26:E30)</f>
+        <v>7.18</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1">
+        <f>AVERAGE(H26:H30)</f>
+        <v>4.92</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1944,6 +2088,29 @@
       </c>
       <c r="H39" s="1">
         <v>9.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1">
+        <f>AVERAGE(B35:B39)</f>
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1">
+        <f>AVERAGE(E35:E39)</f>
+        <v>8.26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1">
+        <f>AVERAGE(H35:H39)</f>
+        <v>9.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/martin-pipette-testing-1-27-16.xlsx
+++ b/data/martin-pipette-testing-1-27-16.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Documents\Git Bash\micropipette\micropipette\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9045" activeTab="3"/>
+    <workbookView xWindow="3660" yWindow="0" windowWidth="23240" windowHeight="14300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Evaporation " sheetId="1" r:id="rId1"/>
     <sheet name="Ependorf 200, 50, 20 uL" sheetId="2" r:id="rId2"/>
     <sheet name="Fisherbrand 10uL" sheetId="3" r:id="rId3"/>
     <sheet name="Printed Pipette" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>Time</t>
   </si>
@@ -78,18 +77,105 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Converstion ul/mg</t>
+  </si>
+  <si>
+    <t>102 kpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0038  </t>
+  </si>
+  <si>
+    <t>Converted Volume</t>
+  </si>
+  <si>
+    <t>systematic</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>Average Converted Volume</t>
+  </si>
+  <si>
+    <t>systematic error</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>printed</t>
+  </si>
+  <si>
+    <t>200 uL for 20-200 uL pipette</t>
+  </si>
+  <si>
+    <t>50 uL for 20-200 uL pipette</t>
+  </si>
+  <si>
+    <t>20 uL for 20-200 uL pipette</t>
+  </si>
+  <si>
+    <t>10 uL for 10-100 uL pipette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,16 +196,132 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="57">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,21 +600,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +633,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -442,11 +647,17 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>30</v>
       </c>
@@ -454,7 +665,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>60</v>
       </c>
@@ -462,7 +673,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>90</v>
       </c>
@@ -470,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>120</v>
       </c>
@@ -478,37 +689,37 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -519,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>0</v>
       </c>
@@ -527,7 +738,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -535,7 +746,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>60</v>
       </c>
@@ -543,7 +754,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>90</v>
       </c>
@@ -551,7 +762,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>120</v>
       </c>
@@ -559,58 +770,65 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H23"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,9 +849,23 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -655,7 +887,7 @@
         <v>198.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -677,7 +909,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -699,7 +931,7 @@
         <v>197.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -721,7 +953,7 @@
         <v>197.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -743,7 +975,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -767,8 +999,28 @@
         <f>AVERAGE(H2:H6)</f>
         <v>196.32</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>1.0038*AVERAGE(B7,E7,H7)</f>
+        <v>198.23042400000003</v>
+      </c>
+      <c r="K7">
+        <f>J7-200</f>
+        <v>-1.7695759999999723</v>
+      </c>
+      <c r="L7">
+        <f>100*(K7/200)</f>
+        <v>-0.88478799999998614</v>
+      </c>
+      <c r="M7">
+        <f>STDEV(B7,E7,H7)</f>
+        <v>1.140526194350661</v>
+      </c>
+      <c r="N7">
+        <f>100*(M7/J7)</f>
+        <v>0.5753537581853031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -778,7 +1030,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -800,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -822,7 +1074,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -844,7 +1096,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -866,7 +1118,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -888,7 +1140,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -911,7 +1163,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -935,8 +1187,28 @@
         <f>AVERAGE(H10:H14)</f>
         <v>47.879999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>1.0038*AVERAGE(B15,E15,H15)</f>
+        <v>48.885059999999996</v>
+      </c>
+      <c r="K15">
+        <f>J15-50</f>
+        <v>-1.1149400000000043</v>
+      </c>
+      <c r="L15">
+        <f>100*(K15/50)</f>
+        <v>-2.2298800000000085</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M8:M23" si="0">STDEV(B15,E15,H15)</f>
+        <v>0.71189886922231183</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N8:N23" si="1">100*(M15/J15)</f>
+        <v>1.4562708304384036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -946,7 +1218,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -968,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -990,7 +1262,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1012,7 +1284,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1034,7 +1306,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1056,7 +1328,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1078,7 +1350,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1100,29 +1372,54 @@
         <f>AVERAGE(H18:H22)</f>
         <v>20.2</v>
       </c>
+      <c r="J23">
+        <f>1.0038*AVERAGE(B23,E23,H23)</f>
+        <v>20.162996000000003</v>
+      </c>
+      <c r="K23">
+        <f>J23-20</f>
+        <v>0.16299600000000325</v>
+      </c>
+      <c r="L23">
+        <f>100*(K23/20)</f>
+        <v>0.81498000000001614</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.16289055630494295</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0.80786881227840801</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1143,8 +1440,20 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1166,7 +1475,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1188,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1210,7 +1519,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1232,7 +1541,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1254,7 +1563,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,28 +1585,54 @@
         <f>AVERAGE(H2:H6)</f>
         <v>9.9</v>
       </c>
+      <c r="J7">
+        <f>1.0038*AVERAGE(B7,E7,H7)</f>
+        <v>9.8773919999999986</v>
+      </c>
+      <c r="K7">
+        <f>J7-10</f>
+        <v>-0.12260800000000138</v>
+      </c>
+      <c r="L7">
+        <f>100*(K7/10)</f>
+        <v>-1.2260800000000138</v>
+      </c>
+      <c r="M7">
+        <f>STDEV(B7,E7,H7)</f>
+        <v>0.33406586176980058</v>
+      </c>
+      <c r="N7">
+        <f>100*(M7/J7)</f>
+        <v>3.3821261904944202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1318,8 +1653,23 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1341,7 +1691,7 @@
         <v>188.8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1363,7 +1713,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1385,7 +1735,7 @@
         <v>188.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1407,7 +1757,7 @@
         <v>186.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1429,7 +1779,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1453,8 +1803,28 @@
         <f>AVERAGE(H2:H6)</f>
         <v>187.88000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>1.0038*AVERAGE(B7,E7,H7)</f>
+        <v>189.50405599999999</v>
+      </c>
+      <c r="K7">
+        <f>J7-200</f>
+        <v>-10.495944000000009</v>
+      </c>
+      <c r="L7">
+        <f>100*(K7/200)</f>
+        <v>-5.2479720000000043</v>
+      </c>
+      <c r="M7">
+        <f>STDEV(B7,E7,H7)</f>
+        <v>0.86379009795974548</v>
+      </c>
+      <c r="N7">
+        <f>100*(M7/J7)</f>
+        <v>0.45581615306415685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1464,7 +1834,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1486,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1508,7 +1878,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1530,7 +1900,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1552,7 +1922,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1574,7 +1944,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1596,7 +1966,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1620,8 +1990,28 @@
         <f>AVERAGE(H10:H14)</f>
         <v>44.320000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>1.0038*AVERAGE(B15,E15,H15)</f>
+        <v>46.027575999999996</v>
+      </c>
+      <c r="K15">
+        <f>J15-50</f>
+        <v>-3.9724240000000037</v>
+      </c>
+      <c r="L15">
+        <f>100*(K15/50)</f>
+        <v>-7.9448480000000075</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M40" si="0">STDEV(B15,E15,H15)</f>
+        <v>2.7603864463754553</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:N40" si="1">100*(M15/J15)</f>
+        <v>5.9972448828838072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1631,7 +2021,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1675,7 +2065,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1697,7 +2087,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1719,7 +2109,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1741,7 +2131,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1763,7 +2153,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1787,8 +2177,28 @@
         <f>AVERAGE(H18:H22)</f>
         <v>16.54</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>1.0038*AVERAGE(B23,E23,H23)</f>
+        <v>17.419276</v>
+      </c>
+      <c r="K23">
+        <f>J23-20</f>
+        <v>-2.580724</v>
+      </c>
+      <c r="L23">
+        <f>100*(K23/20)</f>
+        <v>-12.903619999999998</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.7270029802781639</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>4.1735545167213832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1798,7 +2208,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1842,7 +2252,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1864,7 +2274,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1886,7 +2296,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1908,7 +2318,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -1930,7 +2340,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1952,13 +2362,33 @@
         <f>AVERAGE(H26:H30)</f>
         <v>4.92</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" ref="J24:J40" si="2">1.0038*AVERAGE(B31,E31,H31)</f>
+        <v>6.6250799999999987</v>
+      </c>
+      <c r="K31">
+        <f>J31-10</f>
+        <v>-3.3749200000000013</v>
+      </c>
+      <c r="L31">
+        <f>100*(K31/10)</f>
+        <v>-33.749200000000016</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1.477971582947389</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>22.308735637115163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2002,7 +2432,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2024,7 +2454,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2046,7 +2476,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2068,7 +2498,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -2090,7 +2520,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2112,8 +2542,352 @@
         <f>AVERAGE(H35:H39)</f>
         <v>9.52</v>
       </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>9.0877359999999996</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K32:K40" si="3">J40-10</f>
+        <v>-0.91226400000000041</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L32:L40" si="4">100*(K40/10)</f>
+        <v>-9.1226400000000041</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0.69060360072427474</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>7.5992920648693438</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>198.23042400000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1.7695759999999723</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.88478799999998614</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.140526194350661</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.5753537581853031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>193.39879999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-6.6012000000000057</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-3.3006000000000029</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.8474784166580269</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.4723351006614451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="2">
+        <f>(D7/100)*50</f>
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="2">
+        <f>(F7/100)*50</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>48.885059999999996</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1.1149400000000043</v>
+      </c>
+      <c r="E8" s="3">
+        <f>(D8/100)*50</f>
+        <v>-0.55747000000000213</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.71189886922231183</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.4562708304384036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>49.621180000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.37881999999999749</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.75763999999999498</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.2509729546770123</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.5210463650340689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20.162996000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.16299600000000325</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.81498000000001614</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.16289055630494295</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.80786881227840801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18.704140000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1.2958599999999976</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-6.4792999999999878</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.3743438704364403</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.0013957895762124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.8773919999999986</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-0.12260800000000138</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-1.2260800000000138</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.33406586176980058</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.3821261904944202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>11.951912000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.9519120000000019</v>
+      </c>
+      <c r="E17" s="5">
+        <v>19.519120000000019</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.72341781380702297</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6.052737116931775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>